--- a/Cryotherapy.xlsx
+++ b/Cryotherapy.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr date1904="1" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rouhollah\P3\Supplementary Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axs210154\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2039AA-528C-46AD-81AE-494794953AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CrayoDataset" sheetId="1" r:id="rId1"/>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -581,63 +582,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>247650</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>19</xdr:col>
-          <xdr:colOff>571500</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFF99" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="43"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -902,16 +846,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -934,7 +878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -957,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -980,7 +924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1003,7 +947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1026,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1049,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1072,7 +1016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1095,7 +1039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1118,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1141,7 +1085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1164,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1187,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1210,7 +1154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1233,7 +1177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1256,7 +1200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1279,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1302,7 +1246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -1325,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1348,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1371,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1394,7 +1338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1417,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1440,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1463,7 +1407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1486,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1509,7 +1453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1532,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1555,7 +1499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1578,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1601,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1624,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1647,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1670,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1693,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1716,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1739,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1762,7 +1706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1785,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1808,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1831,7 +1775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1854,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1877,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1900,7 +1844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1923,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1946,7 +1890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -1969,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1</v>
       </c>
@@ -1992,7 +1936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2</v>
       </c>
@@ -2015,7 +1959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2038,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2061,7 +2005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
@@ -2084,7 +2028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2</v>
       </c>
@@ -2107,7 +2051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2130,7 +2074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2</v>
       </c>
@@ -2153,7 +2097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2</v>
       </c>
@@ -2176,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2</v>
       </c>
@@ -2199,7 +2143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2222,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2245,7 +2189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2</v>
       </c>
@@ -2268,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2291,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2</v>
       </c>
@@ -2314,7 +2258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2337,7 +2281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2360,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2</v>
       </c>
@@ -2383,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2</v>
       </c>
@@ -2406,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2429,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2</v>
       </c>
@@ -2452,7 +2396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2</v>
       </c>
@@ -2475,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2498,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2521,7 +2465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1</v>
       </c>
@@ -2544,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2</v>
       </c>
@@ -2567,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1</v>
       </c>
@@ -2590,7 +2534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2613,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2</v>
       </c>
@@ -2636,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1</v>
       </c>
@@ -2659,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1</v>
       </c>
@@ -2682,7 +2626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1</v>
       </c>
@@ -2705,7 +2649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1</v>
       </c>
@@ -2728,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1</v>
       </c>
@@ -2751,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1</v>
       </c>
@@ -2774,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2</v>
       </c>
@@ -2797,7 +2741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1</v>
       </c>
@@ -2820,7 +2764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2</v>
       </c>
@@ -2843,7 +2787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1</v>
       </c>
@@ -2866,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1</v>
       </c>
@@ -2889,7 +2833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2</v>
       </c>
@@ -2912,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2</v>
       </c>
@@ -2935,7 +2879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2</v>
       </c>
@@ -2958,7 +2902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1</v>
       </c>
@@ -2981,7 +2925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1</v>
       </c>
@@ -3007,34 +2951,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="1025" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
-            <anchor moveWithCells="1" sizeWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>19</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="1025" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
 </worksheet>
 </file>